--- a/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F88018-FCFD-48B9-A603-CB0F32A2B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="364">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1123,12 +1124,15 @@
   </si>
   <si>
     <t>10/4,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2003,7 +2007,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2050,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2114,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2174,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2240,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2303,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2401,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2460,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2525,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2568,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2643,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2829,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2895,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2953,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3019,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3075,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3150,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3193,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3259,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3315,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3413,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3476,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3521,7 +3525,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3538,25 +3542,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K568" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K569" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3568,13 +3572,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3583,14 +3587,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3894,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3904,7 +3908,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3912,34 +3916,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K568"/>
+  <dimension ref="A2:K569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A548" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A554" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K558" sqref="K558"/>
+      <selection pane="bottomLeft" activeCell="C563" sqref="C563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +3964,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3980,7 +3984,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4006,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4010,7 +4014,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4023,7 +4027,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4040,7 +4044,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4084,7 +4088,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.758000000000067</v>
+        <v>60.258000000000067</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4094,12 +4098,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>133.99799999999999</v>
+        <v>136.49799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -4121,7 +4125,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4167,7 +4171,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35977</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -4215,7 +4219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36008</v>
       </c>
@@ -4239,7 +4243,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36039</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>36042</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -4285,7 +4289,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36069</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36100</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>36101</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>55</v>
@@ -4357,7 +4361,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -4381,7 +4385,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>43</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36161</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36192</v>
       </c>
@@ -4443,7 +4447,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36220</v>
       </c>
@@ -4463,7 +4467,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36251</v>
       </c>
@@ -4483,7 +4487,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36281</v>
       </c>
@@ -4503,7 +4507,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4523,7 +4527,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4543,7 +4547,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4563,7 +4567,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4583,7 +4587,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36434</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36465</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36495</v>
       </c>
@@ -4657,7 +4661,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>44</v>
       </c>
@@ -4675,7 +4679,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36526</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36557</v>
       </c>
@@ -4719,7 +4723,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36586</v>
       </c>
@@ -4739,7 +4743,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36617</v>
       </c>
@@ -4759,7 +4763,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -4779,7 +4783,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -4799,7 +4803,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -4819,7 +4823,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -4839,7 +4843,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -4859,7 +4863,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -4879,7 +4883,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>66</v>
@@ -4927,7 +4931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -4951,7 +4955,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>64</v>
       </c>
@@ -4969,7 +4973,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>36920</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -5015,7 +5019,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -5039,7 +5043,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>36962</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>47</v>
@@ -5087,7 +5091,7 @@
         <v>36979</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>72</v>
@@ -5107,7 +5111,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -5131,7 +5135,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>37029</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -5179,7 +5183,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37043</v>
       </c>
@@ -5203,7 +5207,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37073</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>52</v>
@@ -5251,7 +5255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -5273,7 +5277,7 @@
         <v>37091</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37104</v>
       </c>
@@ -5297,7 +5301,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>37154</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>78</v>
@@ -5343,7 +5347,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37165</v>
       </c>
@@ -5367,7 +5371,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -5391,7 +5395,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37226</v>
       </c>
@@ -5415,7 +5419,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>83</v>
@@ -5435,7 +5439,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -5453,7 +5457,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37257</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>84</v>
@@ -5501,7 +5505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>85</v>
@@ -5521,7 +5525,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>57</v>
@@ -5541,7 +5545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>62</v>
@@ -5561,7 +5565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37288</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>37314</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>90</v>
@@ -5607,7 +5611,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37316</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>37326</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>74</v>
@@ -5655,7 +5659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>91</v>
@@ -5675,7 +5679,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37347</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>37349</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5721,7 +5725,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37377</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>37391</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -5769,7 +5773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5789,7 +5793,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37408</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>37431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>95</v>
@@ -5835,7 +5839,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>37449</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -5881,7 +5885,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37500</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37530</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>97</v>
@@ -5951,7 +5955,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37561</v>
       </c>
@@ -5971,7 +5975,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37591</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="48" t="s">
         <v>98</v>
       </c>
@@ -6015,7 +6019,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37622</v>
       </c>
@@ -6039,7 +6043,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37653</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>74</v>
@@ -6087,7 +6091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>74</v>
@@ -6109,7 +6113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>47</v>
@@ -6131,7 +6135,7 @@
         <v>37673</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -6153,7 +6157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37681</v>
       </c>
@@ -6177,7 +6181,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37712</v>
       </c>
@@ -6197,7 +6201,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37742</v>
       </c>
@@ -6221,7 +6225,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37773</v>
       </c>
@@ -6247,7 +6251,7 @@
         <v>37796</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>107</v>
@@ -6267,7 +6271,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37803</v>
       </c>
@@ -6291,7 +6295,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37834</v>
       </c>
@@ -6315,7 +6319,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37865</v>
       </c>
@@ -6339,7 +6343,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37895</v>
       </c>
@@ -6363,7 +6367,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>110</v>
@@ -6409,7 +6413,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="49"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37956</v>
       </c>
@@ -6433,7 +6437,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>111</v>
       </c>
@@ -6451,7 +6455,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -6475,7 +6479,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38018</v>
       </c>
@@ -6499,7 +6503,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38047</v>
       </c>
@@ -6523,7 +6527,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38078</v>
       </c>
@@ -6543,7 +6547,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38108</v>
       </c>
@@ -6567,7 +6571,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38139</v>
       </c>
@@ -6591,7 +6595,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38169</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>38200</v>
       </c>
@@ -6641,7 +6645,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38231</v>
       </c>
@@ -6665,7 +6669,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>38261</v>
       </c>
@@ -6689,7 +6693,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38292</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38322</v>
       </c>
@@ -6739,7 +6743,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>112</v>
       </c>
@@ -6757,7 +6761,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38353</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -6803,7 +6807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>66</v>
@@ -6825,7 +6829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38384</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38412</v>
       </c>
@@ -6871,7 +6875,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38443</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38473</v>
       </c>
@@ -6917,7 +6921,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38504</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38534</v>
       </c>
@@ -6963,7 +6967,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38565</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38596</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>38609</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7035,7 +7039,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -7057,7 +7061,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>38626</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>47</v>
@@ -7105,7 +7109,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38657</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>47</v>
@@ -7153,7 +7157,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38687</v>
       </c>
@@ -7177,7 +7181,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>128</v>
       </c>
@@ -7195,7 +7199,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38718</v>
       </c>
@@ -7215,7 +7219,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38749</v>
       </c>
@@ -7235,7 +7239,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38777</v>
       </c>
@@ -7255,7 +7259,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38808</v>
       </c>
@@ -7275,7 +7279,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38838</v>
       </c>
@@ -7295,7 +7299,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38869</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38899</v>
       </c>
@@ -7341,7 +7345,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38930</v>
       </c>
@@ -7361,7 +7365,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38961</v>
       </c>
@@ -7381,7 +7385,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38991</v>
       </c>
@@ -7405,7 +7409,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39022</v>
       </c>
@@ -7425,7 +7429,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39052</v>
       </c>
@@ -7445,7 +7449,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="48" t="s">
         <v>129</v>
       </c>
@@ -7463,7 +7467,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>39083</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>52</v>
@@ -7507,7 +7511,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>39114</v>
       </c>
@@ -7527,7 +7531,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>39142</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>39173</v>
       </c>
@@ -7573,7 +7577,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>39203</v>
       </c>
@@ -7593,7 +7597,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>39234</v>
       </c>
@@ -7613,7 +7617,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>39264</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>132</v>
@@ -7659,7 +7663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>39295</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7707,7 +7711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>74</v>
@@ -7729,7 +7733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>39326</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>57</v>
@@ -7775,7 +7779,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -7797,7 +7801,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>39356</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>39359</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>39387</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>39417</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="48" t="s">
         <v>137</v>
       </c>
@@ -7893,7 +7897,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39448</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>149</v>
@@ -7939,7 +7943,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>84</v>
@@ -7961,7 +7965,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>47</v>
@@ -7983,7 +7987,7 @@
         <v>39503</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>39479</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>84</v>
@@ -8031,7 +8035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>74</v>
@@ -8053,7 +8057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>39508</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>54</v>
@@ -8101,7 +8105,7 @@
         <v>39525</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>59</v>
@@ -8123,7 +8127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>47</v>
@@ -8145,7 +8149,7 @@
         <v>39524</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39539</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39569</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="15" t="s">
         <v>52</v>
@@ -8219,7 +8223,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>39600</v>
       </c>
@@ -8245,7 +8249,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>84</v>
@@ -8267,7 +8271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>47</v>
@@ -8289,7 +8293,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>160</v>
@@ -8309,7 +8313,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>39630</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>84</v>
@@ -8357,7 +8361,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>47</v>
@@ -8379,7 +8383,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>159</v>
@@ -8399,7 +8403,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39661</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>163</v>
@@ -8445,7 +8449,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>164</v>
@@ -8465,7 +8469,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39692</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>47</v>
@@ -8513,7 +8517,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>165</v>
@@ -8533,7 +8537,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39722</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>65</v>
@@ -8581,7 +8585,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>168</v>
@@ -8601,7 +8605,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>74</v>
@@ -8649,7 +8653,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -8671,7 +8675,7 @@
         <v>39770</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>84</v>
@@ -8693,7 +8697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -8715,7 +8719,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>116</v>
@@ -8735,7 +8739,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39783</v>
       </c>
@@ -8761,7 +8765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>173</v>
@@ -8781,7 +8785,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="48" t="s">
         <v>138</v>
       </c>
@@ -8799,7 +8803,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39814</v>
       </c>
@@ -8823,7 +8827,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>52</v>
@@ -8845,7 +8849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>74</v>
@@ -8867,7 +8871,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>149</v>
@@ -8887,7 +8891,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>52</v>
@@ -8909,7 +8913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>175</v>
@@ -8929,7 +8933,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39845</v>
       </c>
@@ -8955,7 +8959,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -8977,7 +8981,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>84</v>
@@ -8997,7 +9001,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>180</v>
@@ -9017,7 +9021,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>183</v>
@@ -9063,7 +9067,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>184</v>
@@ -9083,7 +9087,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39904</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>47</v>
@@ -9129,7 +9133,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>52</v>
@@ -9151,7 +9155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>187</v>
@@ -9171,7 +9175,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39934</v>
       </c>
@@ -9197,7 +9201,7 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -9217,7 +9221,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>183</v>
@@ -9239,7 +9243,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39965</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>84</v>
@@ -9287,7 +9291,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>118</v>
@@ -9307,7 +9311,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39995</v>
       </c>
@@ -9333,7 +9337,7 @@
         <v>39995</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>52</v>
@@ -9355,7 +9359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>65</v>
@@ -9377,7 +9381,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>193</v>
@@ -9397,7 +9401,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>40026</v>
       </c>
@@ -9421,7 +9425,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>40057</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9469,7 +9473,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>47</v>
@@ -9491,7 +9495,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>81</v>
@@ -9513,7 +9517,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>197</v>
@@ -9533,7 +9537,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>40087</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>74</v>
@@ -9581,7 +9585,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>74</v>
@@ -9603,7 +9607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>81</v>
@@ -9625,7 +9629,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>199</v>
@@ -9645,7 +9649,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>40118</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>203</v>
@@ -9689,7 +9693,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>74</v>
@@ -9711,7 +9715,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40148</v>
       </c>
@@ -9737,7 +9741,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>205</v>
@@ -9757,7 +9761,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>206</v>
@@ -9777,7 +9781,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="48" t="s">
         <v>139</v>
       </c>
@@ -9795,7 +9799,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>40179</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>45</v>
@@ -9839,7 +9843,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>47</v>
@@ -9861,7 +9865,7 @@
         <v>40193</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>65</v>
@@ -9883,7 +9887,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>207</v>
@@ -9903,7 +9907,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40210</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>47</v>
@@ -9951,7 +9955,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>209</v>
@@ -9971,7 +9975,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40238</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>40242</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>47</v>
@@ -10019,7 +10023,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>210</v>
@@ -10039,7 +10043,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>40269</v>
       </c>
@@ -10065,7 +10069,7 @@
         <v>40282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>211</v>
@@ -10085,7 +10089,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40299</v>
       </c>
@@ -10109,7 +10113,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>40330</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>213</v>
@@ -10155,7 +10159,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>40360</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -10201,7 +10205,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>47</v>
@@ -10223,7 +10227,7 @@
         <v>40379</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>47</v>
@@ -10245,7 +10249,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>47</v>
@@ -10267,7 +10271,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>214</v>
@@ -10287,7 +10291,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40391</v>
       </c>
@@ -10313,7 +10317,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>47</v>
@@ -10335,7 +10339,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>216</v>
@@ -10355,7 +10359,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>40422</v>
       </c>
@@ -10379,7 +10383,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40452</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>47</v>
@@ -10427,7 +10431,7 @@
         <v>40462</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>54</v>
@@ -10449,7 +10453,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>218</v>
@@ -10469,7 +10473,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40483</v>
       </c>
@@ -10493,7 +10497,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40513</v>
       </c>
@@ -10519,7 +10523,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>205</v>
@@ -10539,7 +10543,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>221</v>
@@ -10559,7 +10563,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="48" t="s">
         <v>140</v>
       </c>
@@ -10577,7 +10581,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40544</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>222</v>
@@ -10623,7 +10627,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>40575</v>
       </c>
@@ -10647,7 +10651,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40603</v>
       </c>
@@ -10671,7 +10675,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40634</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>70</v>
@@ -10717,7 +10721,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40664</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>226</v>
@@ -10763,7 +10767,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>40695</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -10809,7 +10813,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40725</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>40744</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>227</v>
@@ -10855,7 +10859,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40756</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>47</v>
@@ -10903,7 +10907,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>228</v>
@@ -10923,7 +10927,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40787</v>
       </c>
@@ -10947,7 +10951,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>47</v>
@@ -10969,7 +10973,7 @@
         <v>40809</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>47</v>
@@ -10991,7 +10995,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11011,7 +11015,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40817</v>
       </c>
@@ -11037,7 +11041,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>231</v>
@@ -11057,7 +11061,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40848</v>
       </c>
@@ -11081,7 +11085,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40878</v>
       </c>
@@ -11107,7 +11111,7 @@
         <v>40893</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>233</v>
@@ -11127,7 +11131,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="49"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48" t="s">
         <v>141</v>
       </c>
@@ -11145,7 +11149,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>40909</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>52</v>
@@ -11191,7 +11195,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>47</v>
@@ -11213,7 +11217,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>234</v>
@@ -11233,7 +11237,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>40940</v>
       </c>
@@ -11257,7 +11261,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40969</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>54</v>
@@ -11305,7 +11309,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>74</v>
@@ -11327,7 +11331,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>236</v>
@@ -11347,7 +11351,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41000</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>239</v>
@@ -11393,7 +11397,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41030</v>
       </c>
@@ -11417,7 +11421,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>47</v>
@@ -11439,7 +11443,7 @@
         <v>41058</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>241</v>
@@ -11459,7 +11463,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>41061</v>
       </c>
@@ -11485,7 +11489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>242</v>
@@ -11505,7 +11509,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41091</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>47</v>
@@ -11553,7 +11557,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>244</v>
@@ -11573,7 +11577,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>41122</v>
       </c>
@@ -11599,7 +11603,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>246</v>
@@ -11621,7 +11625,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>247</v>
@@ -11641,7 +11645,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41153</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>57</v>
@@ -11687,7 +11691,7 @@
         <v>41171</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -11709,7 +11713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>250</v>
@@ -11731,7 +11735,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>251</v>
@@ -11751,7 +11755,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41183</v>
       </c>
@@ -11777,7 +11781,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>41214</v>
       </c>
@@ -11801,7 +11805,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41244</v>
       </c>
@@ -11825,7 +11829,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="48" t="s">
         <v>142</v>
       </c>
@@ -11843,7 +11847,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>41275</v>
       </c>
@@ -11869,7 +11873,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>205</v>
@@ -11889,7 +11893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11909,7 +11913,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11931,7 +11935,7 @@
         <v>41303</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>256</v>
@@ -11951,7 +11955,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41306</v>
       </c>
@@ -11977,7 +11981,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>258</v>
@@ -11997,7 +12001,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41334</v>
       </c>
@@ -12023,7 +12027,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>260</v>
@@ -12032,7 +12036,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.758000000000067</v>
+        <v>60.258000000000067</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -12042,12 +12046,12 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>133.99799999999999</v>
+        <v>136.49799999999999</v>
       </c>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>41365</v>
       </c>
@@ -12071,7 +12075,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>41395</v>
       </c>
@@ -12095,7 +12099,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>52</v>
@@ -12117,7 +12121,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>132</v>
@@ -12139,7 +12143,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>107</v>
@@ -12159,7 +12163,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>41426</v>
       </c>
@@ -12185,7 +12189,7 @@
         <v>41442</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>264</v>
@@ -12205,7 +12209,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41456</v>
       </c>
@@ -12229,7 +12233,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41487</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>266</v>
@@ -12275,7 +12279,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41518</v>
       </c>
@@ -12301,7 +12305,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>267</v>
@@ -12321,7 +12325,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41548</v>
       </c>
@@ -12347,7 +12351,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>268</v>
@@ -12367,7 +12371,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>41579</v>
       </c>
@@ -12391,7 +12395,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41609</v>
       </c>
@@ -12415,7 +12419,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>271</v>
@@ -12435,7 +12439,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="48" t="s">
         <v>143</v>
       </c>
@@ -12453,7 +12457,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41640</v>
       </c>
@@ -12477,7 +12481,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41671</v>
       </c>
@@ -12503,7 +12507,7 @@
         <v>41684</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -12523,7 +12527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>113</v>
@@ -12543,7 +12547,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41699</v>
       </c>
@@ -12567,7 +12571,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>41730</v>
       </c>
@@ -12593,7 +12597,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>275</v>
@@ -12613,7 +12617,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>41760</v>
       </c>
@@ -12639,7 +12643,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>57</v>
@@ -12659,7 +12663,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>276</v>
@@ -12679,7 +12683,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41791</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>278</v>
@@ -12725,7 +12729,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41821</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>279</v>
@@ -12771,7 +12775,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>41852</v>
       </c>
@@ -12795,7 +12799,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41883</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>281</v>
@@ -12839,7 +12843,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41913</v>
       </c>
@@ -12863,7 +12867,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41944</v>
       </c>
@@ -12889,7 +12893,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>284</v>
@@ -12909,7 +12913,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41974</v>
       </c>
@@ -12933,7 +12937,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="48" t="s">
         <v>144</v>
       </c>
@@ -12951,7 +12955,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42005</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>265</v>
@@ -12995,7 +12999,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42036</v>
       </c>
@@ -13019,7 +13023,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42064</v>
       </c>
@@ -13045,7 +13049,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>288</v>
@@ -13065,7 +13069,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42095</v>
       </c>
@@ -13089,7 +13093,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42125</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>290</v>
@@ -13135,7 +13139,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42156</v>
       </c>
@@ -13159,7 +13163,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42186</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>293</v>
@@ -13203,7 +13207,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>42217</v>
       </c>
@@ -13227,7 +13231,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42248</v>
       </c>
@@ -13251,7 +13255,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>42278</v>
       </c>
@@ -13275,7 +13279,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42309</v>
       </c>
@@ -13299,7 +13303,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>42339</v>
       </c>
@@ -13323,7 +13327,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="48" t="s">
         <v>145</v>
       </c>
@@ -13341,7 +13345,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42370</v>
       </c>
@@ -13365,7 +13369,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42401</v>
       </c>
@@ -13389,7 +13393,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>299</v>
@@ -13409,7 +13413,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="49"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42430</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13455,7 +13459,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>300</v>
@@ -13475,7 +13479,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>42461</v>
       </c>
@@ -13499,7 +13503,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42491</v>
       </c>
@@ -13525,7 +13529,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>303</v>
@@ -13545,7 +13549,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42522</v>
       </c>
@@ -13569,7 +13573,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>42552</v>
       </c>
@@ -13593,7 +13597,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42583</v>
       </c>
@@ -13617,7 +13621,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42614</v>
       </c>
@@ -13641,7 +13645,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42644</v>
       </c>
@@ -13665,7 +13669,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>42675</v>
       </c>
@@ -13691,7 +13695,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>308</v>
@@ -13711,7 +13715,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>42705</v>
       </c>
@@ -13735,7 +13739,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>309</v>
@@ -13755,7 +13759,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>146</v>
       </c>
@@ -13773,7 +13777,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>42736</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>74</v>
@@ -13819,7 +13823,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13841,7 +13845,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>312</v>
@@ -13861,7 +13865,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="49"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42767</v>
       </c>
@@ -13885,7 +13889,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42795</v>
       </c>
@@ -13911,7 +13915,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>314</v>
@@ -13931,7 +13935,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42826</v>
       </c>
@@ -13955,7 +13959,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42856</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>47</v>
@@ -14003,7 +14007,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>47</v>
@@ -14025,7 +14029,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>316</v>
@@ -14045,7 +14049,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42887</v>
       </c>
@@ -14069,7 +14073,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42917</v>
       </c>
@@ -14093,7 +14097,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42948</v>
       </c>
@@ -14119,7 +14123,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>47</v>
@@ -14141,7 +14145,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>319</v>
@@ -14161,7 +14165,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="49"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42979</v>
       </c>
@@ -14185,7 +14189,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43009</v>
       </c>
@@ -14209,7 +14213,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43040</v>
       </c>
@@ -14229,7 +14233,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43070</v>
       </c>
@@ -14253,7 +14257,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="48" t="s">
         <v>147</v>
       </c>
@@ -14271,7 +14275,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43101</v>
       </c>
@@ -14295,7 +14299,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43132</v>
       </c>
@@ -14315,7 +14319,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43160</v>
       </c>
@@ -14339,7 +14343,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43191</v>
       </c>
@@ -14359,7 +14363,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43221</v>
       </c>
@@ -14383,7 +14387,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>321</v>
@@ -14403,7 +14407,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43252</v>
       </c>
@@ -14427,7 +14431,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43282</v>
       </c>
@@ -14453,7 +14457,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>324</v>
@@ -14473,7 +14477,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43313</v>
       </c>
@@ -14497,7 +14501,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43344</v>
       </c>
@@ -14521,7 +14525,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>328</v>
@@ -14541,7 +14545,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43374</v>
       </c>
@@ -14565,7 +14569,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43405</v>
       </c>
@@ -14589,7 +14593,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43435</v>
       </c>
@@ -14613,7 +14617,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>333</v>
@@ -14633,7 +14637,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>47</v>
@@ -14655,7 +14659,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="48" t="s">
         <v>148</v>
       </c>
@@ -14673,7 +14677,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>43466</v>
       </c>
@@ -14697,7 +14701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>99</v>
@@ -14717,7 +14721,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43497</v>
       </c>
@@ -14739,7 +14743,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>335</v>
@@ -14759,7 +14763,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43525</v>
       </c>
@@ -14783,7 +14787,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43556</v>
       </c>
@@ -14809,7 +14813,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>337</v>
@@ -14829,7 +14833,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43586</v>
       </c>
@@ -14849,7 +14853,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43617</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>335</v>
@@ -14895,7 +14899,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43647</v>
       </c>
@@ -14919,7 +14923,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43678</v>
       </c>
@@ -14943,7 +14947,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>43709</v>
       </c>
@@ -14967,7 +14971,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43739</v>
       </c>
@@ -14991,7 +14995,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43770</v>
       </c>
@@ -15015,7 +15019,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43800</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>289</v>
@@ -15061,7 +15065,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>344</v>
@@ -15081,7 +15085,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>330</v>
       </c>
@@ -15099,7 +15103,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -15123,7 +15127,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>47</v>
@@ -15145,7 +15149,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43862</v>
       </c>
@@ -15165,7 +15169,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43891</v>
       </c>
@@ -15185,7 +15189,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43922</v>
       </c>
@@ -15205,7 +15209,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43952</v>
       </c>
@@ -15225,7 +15229,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>43983</v>
       </c>
@@ -15245,7 +15249,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44013</v>
       </c>
@@ -15265,7 +15269,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44044</v>
       </c>
@@ -15285,7 +15289,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44075</v>
       </c>
@@ -15305,7 +15309,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44105</v>
       </c>
@@ -15325,7 +15329,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44136</v>
       </c>
@@ -15345,7 +15349,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44166</v>
       </c>
@@ -15369,7 +15373,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="48" t="s">
         <v>331</v>
       </c>
@@ -15387,7 +15391,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44197</v>
       </c>
@@ -15407,7 +15411,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44228</v>
       </c>
@@ -15427,7 +15431,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44256</v>
       </c>
@@ -15447,7 +15451,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44287</v>
       </c>
@@ -15467,7 +15471,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44317</v>
       </c>
@@ -15487,7 +15491,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44348</v>
       </c>
@@ -15507,7 +15511,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44378</v>
       </c>
@@ -15527,7 +15531,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44409</v>
       </c>
@@ -15547,7 +15551,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44440</v>
       </c>
@@ -15567,7 +15571,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44470</v>
       </c>
@@ -15587,7 +15591,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44501</v>
       </c>
@@ -15607,7 +15611,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44531</v>
       </c>
@@ -15631,7 +15635,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="48" t="s">
         <v>332</v>
       </c>
@@ -15649,7 +15653,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44562</v>
       </c>
@@ -15669,7 +15673,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44593</v>
       </c>
@@ -15689,7 +15693,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44621</v>
       </c>
@@ -15713,7 +15717,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44652</v>
       </c>
@@ -15737,7 +15741,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>71</v>
@@ -15757,7 +15761,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44682</v>
       </c>
@@ -15781,7 +15785,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44713</v>
       </c>
@@ -15805,7 +15809,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44743</v>
       </c>
@@ -15829,7 +15833,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44774</v>
       </c>
@@ -15855,7 +15859,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>358</v>
@@ -15875,7 +15879,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="49"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44805</v>
       </c>
@@ -15899,7 +15903,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>356</v>
@@ -15919,7 +15923,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44835</v>
       </c>
@@ -15943,7 +15947,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>343</v>
@@ -15963,7 +15967,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="49"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44866</v>
       </c>
@@ -15987,7 +15991,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44896</v>
       </c>
@@ -16011,7 +16015,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>54</v>
@@ -16033,7 +16037,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>355</v>
@@ -16053,7 +16057,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="49"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="48" t="s">
         <v>348</v>
       </c>
@@ -16071,7 +16075,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44927</v>
       </c>
@@ -16095,7 +16099,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>47</v>
@@ -16117,7 +16121,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44958</v>
       </c>
@@ -16137,7 +16141,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44986</v>
       </c>
@@ -16157,7 +16161,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45017</v>
       </c>
@@ -16177,7 +16181,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45047</v>
       </c>
@@ -16197,7 +16201,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45078</v>
       </c>
@@ -16217,7 +16221,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45108</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>47</v>
@@ -16263,7 +16267,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45139</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>57</v>
@@ -16309,7 +16313,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45170</v>
       </c>
@@ -16329,7 +16333,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45200</v>
       </c>
@@ -16353,7 +16357,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>74</v>
@@ -16375,45 +16379,49 @@
         <v>362</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45231</v>
       </c>
       <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45261</v>
       </c>
       <c r="B560" s="20"/>
-      <c r="C560" s="13"/>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45292</v>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="48" t="s">
+        <v>363</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16429,11 +16437,13 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B562" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
@@ -16445,11 +16455,13 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K562" s="49">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16465,9 +16477,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16483,9 +16495,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16501,9 +16513,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16519,8 +16531,10 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567" s="40">
+        <v>45444</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -16535,21 +16549,37 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="41"/>
-      <c r="B568" s="15"/>
-      <c r="C568" s="42"/>
-      <c r="D568" s="43"/>
-      <c r="E568" s="51"/>
-      <c r="F568" s="15"/>
-      <c r="G568" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H568" s="43"/>
-      <c r="I568" s="51"/>
-      <c r="J568" s="12"/>
-      <c r="K568" s="15"/>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="40"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="41"/>
+      <c r="B569" s="15"/>
+      <c r="C569" s="42"/>
+      <c r="D569" s="43"/>
+      <c r="E569" s="51"/>
+      <c r="F569" s="15"/>
+      <c r="G569" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="43"/>
+      <c r="I569" s="51"/>
+      <c r="J569" s="12"/>
+      <c r="K569" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16566,10 +16596,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16592,7 +16622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16600,21 +16630,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16627,7 +16657,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16656,7 +16686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>6.9580000000000002</v>
       </c>
@@ -16684,17 +16714,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16715,7 +16745,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16742,7 +16772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16768,7 +16798,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16794,7 +16824,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16820,7 +16850,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16846,7 +16876,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16872,7 +16902,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16898,7 +16928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16924,7 +16954,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16944,7 +16974,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16964,7 +16994,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16984,7 +17014,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17005,7 +17035,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17026,7 +17056,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17047,7 +17077,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17068,7 +17098,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17089,7 +17119,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17110,7 +17140,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17131,7 +17161,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17152,7 +17182,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17173,7 +17203,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17194,7 +17224,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17215,7 +17245,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17236,7 +17266,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17257,7 +17287,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17278,7 +17308,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17299,7 +17329,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17320,7 +17350,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17341,7 +17371,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17362,7 +17392,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17383,7 +17413,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17404,7 +17434,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17413,7 +17443,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17422,7 +17452,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17431,7 +17461,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17440,7 +17470,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17449,7 +17479,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17458,7 +17488,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17467,7 +17497,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17476,7 +17506,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17485,7 +17515,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17494,7 +17524,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17503,7 +17533,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17512,7 +17542,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17521,7 +17551,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17530,7 +17560,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17539,7 +17569,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17548,7 +17578,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17557,7 +17587,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17566,7 +17596,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17575,7 +17605,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17584,7 +17614,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17593,7 +17623,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17602,7 +17632,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17611,7 +17641,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17620,7 +17650,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17629,7 +17659,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17638,7 +17668,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17647,7 +17677,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17656,7 +17686,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17665,7 +17695,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F88018-FCFD-48B9-A603-CB0F32A2B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="368">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1127,12 +1126,24 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-44)</t>
+  </si>
+  <si>
+    <t>UT(0-0-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2007,7 +2018,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2061,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2125,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2185,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2251,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2314,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2412,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2471,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2536,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2579,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2654,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2840,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2906,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2964,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3030,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3086,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3161,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3204,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3270,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3326,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3424,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3487,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,7 +3536,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3542,25 +3553,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K569" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3572,13 +3583,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3587,14 +3598,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3898,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3908,7 +3919,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3916,34 +3927,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K569"/>
+  <dimension ref="A2:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A554" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A551" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C563" sqref="C563"/>
+      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3964,7 +3975,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +3995,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4017,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4014,7 +4025,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4027,7 +4038,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4044,7 +4055,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +4090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4088,7 +4099,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.258000000000067</v>
+        <v>58.931000000000125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4103,7 +4114,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -4125,7 +4136,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35947</v>
       </c>
@@ -4151,7 +4162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4171,7 +4182,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35977</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>35977</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -4219,7 +4230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36008</v>
       </c>
@@ -4243,7 +4254,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36039</v>
       </c>
@@ -4269,7 +4280,7 @@
         <v>36042</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -4289,7 +4300,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36069</v>
       </c>
@@ -4315,7 +4326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36100</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>36101</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>55</v>
@@ -4361,7 +4372,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -4385,7 +4396,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>43</v>
       </c>
@@ -4403,7 +4414,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36161</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36192</v>
       </c>
@@ -4447,7 +4458,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36220</v>
       </c>
@@ -4467,7 +4478,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36251</v>
       </c>
@@ -4487,7 +4498,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36281</v>
       </c>
@@ -4507,7 +4518,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4527,7 +4538,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4547,7 +4558,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4567,7 +4578,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4587,7 +4598,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36434</v>
       </c>
@@ -4611,7 +4622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36465</v>
       </c>
@@ -4637,7 +4648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36495</v>
       </c>
@@ -4661,7 +4672,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>44</v>
       </c>
@@ -4679,7 +4690,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36526</v>
       </c>
@@ -4703,7 +4714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36557</v>
       </c>
@@ -4723,7 +4734,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36586</v>
       </c>
@@ -4743,7 +4754,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36617</v>
       </c>
@@ -4763,7 +4774,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36647</v>
       </c>
@@ -4783,7 +4794,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36678</v>
       </c>
@@ -4803,7 +4814,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36708</v>
       </c>
@@ -4823,7 +4834,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36739</v>
       </c>
@@ -4843,7 +4854,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36770</v>
       </c>
@@ -4863,7 +4874,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36800</v>
       </c>
@@ -4883,7 +4894,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36831</v>
       </c>
@@ -4909,7 +4920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>66</v>
@@ -4931,7 +4942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -4955,7 +4966,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>64</v>
       </c>
@@ -4973,7 +4984,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -4999,7 +5010,7 @@
         <v>36920</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -5019,7 +5030,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -5043,7 +5054,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -5069,7 +5080,7 @@
         <v>36962</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>47</v>
@@ -5091,7 +5102,7 @@
         <v>36979</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>72</v>
@@ -5111,7 +5122,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -5135,7 +5146,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -5161,7 +5172,7 @@
         <v>37029</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -5183,7 +5194,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37043</v>
       </c>
@@ -5207,7 +5218,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37073</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>52</v>
@@ -5255,7 +5266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -5277,7 +5288,7 @@
         <v>37091</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37104</v>
       </c>
@@ -5301,7 +5312,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -5327,7 +5338,7 @@
         <v>37154</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>78</v>
@@ -5347,7 +5358,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37165</v>
       </c>
@@ -5371,7 +5382,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -5395,7 +5406,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37226</v>
       </c>
@@ -5419,7 +5430,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>83</v>
@@ -5439,7 +5450,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -5457,7 +5468,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37257</v>
       </c>
@@ -5483,7 +5494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>84</v>
@@ -5505,7 +5516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>85</v>
@@ -5525,7 +5536,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>57</v>
@@ -5545,7 +5556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>62</v>
@@ -5565,7 +5576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37288</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v>37314</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>90</v>
@@ -5611,7 +5622,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="49"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37316</v>
       </c>
@@ -5637,7 +5648,7 @@
         <v>37326</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>74</v>
@@ -5659,7 +5670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>91</v>
@@ -5679,7 +5690,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37347</v>
       </c>
@@ -5705,7 +5716,7 @@
         <v>37349</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5725,7 +5736,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37377</v>
       </c>
@@ -5751,7 +5762,7 @@
         <v>37391</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -5773,7 +5784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5793,7 +5804,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37408</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>37431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>95</v>
@@ -5839,7 +5850,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -5865,7 +5876,7 @@
         <v>37449</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -5885,7 +5896,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37500</v>
       </c>
@@ -5909,7 +5920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37530</v>
       </c>
@@ -5935,7 +5946,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>97</v>
@@ -5955,7 +5966,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37561</v>
       </c>
@@ -5975,7 +5986,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37591</v>
       </c>
@@ -6001,7 +6012,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>98</v>
       </c>
@@ -6019,7 +6030,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37622</v>
       </c>
@@ -6043,7 +6054,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37653</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>74</v>
@@ -6091,7 +6102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>74</v>
@@ -6113,7 +6124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>47</v>
@@ -6135,7 +6146,7 @@
         <v>37673</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -6157,7 +6168,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37681</v>
       </c>
@@ -6181,7 +6192,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37712</v>
       </c>
@@ -6201,7 +6212,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37742</v>
       </c>
@@ -6225,7 +6236,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37773</v>
       </c>
@@ -6251,7 +6262,7 @@
         <v>37796</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>107</v>
@@ -6271,7 +6282,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37803</v>
       </c>
@@ -6295,7 +6306,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37834</v>
       </c>
@@ -6319,7 +6330,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37865</v>
       </c>
@@ -6343,7 +6354,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37895</v>
       </c>
@@ -6367,7 +6378,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -6393,7 +6404,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>110</v>
@@ -6413,7 +6424,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="49"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37956</v>
       </c>
@@ -6437,7 +6448,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>111</v>
       </c>
@@ -6455,7 +6466,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -6479,7 +6490,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38018</v>
       </c>
@@ -6503,7 +6514,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38047</v>
       </c>
@@ -6527,7 +6538,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38078</v>
       </c>
@@ -6547,7 +6558,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38108</v>
       </c>
@@ -6571,7 +6582,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38139</v>
       </c>
@@ -6595,7 +6606,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38169</v>
       </c>
@@ -6621,7 +6632,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38200</v>
       </c>
@@ -6645,7 +6656,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38231</v>
       </c>
@@ -6669,7 +6680,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38261</v>
       </c>
@@ -6693,7 +6704,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38292</v>
       </c>
@@ -6719,7 +6730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38322</v>
       </c>
@@ -6743,7 +6754,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>112</v>
       </c>
@@ -6761,7 +6772,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38353</v>
       </c>
@@ -6785,7 +6796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -6807,7 +6818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>66</v>
@@ -6829,7 +6840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38384</v>
       </c>
@@ -6855,7 +6866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38412</v>
       </c>
@@ -6875,7 +6886,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38443</v>
       </c>
@@ -6901,7 +6912,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38473</v>
       </c>
@@ -6921,7 +6932,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38504</v>
       </c>
@@ -6947,7 +6958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38534</v>
       </c>
@@ -6967,7 +6978,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38565</v>
       </c>
@@ -6993,7 +7004,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38596</v>
       </c>
@@ -7019,7 +7030,7 @@
         <v>38609</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7039,7 +7050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -7061,7 +7072,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38626</v>
       </c>
@@ -7087,7 +7098,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>47</v>
@@ -7109,7 +7120,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38657</v>
       </c>
@@ -7135,7 +7146,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>47</v>
@@ -7157,7 +7168,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38687</v>
       </c>
@@ -7181,7 +7192,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>128</v>
       </c>
@@ -7199,7 +7210,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38718</v>
       </c>
@@ -7219,7 +7230,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38749</v>
       </c>
@@ -7239,7 +7250,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38777</v>
       </c>
@@ -7259,7 +7270,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38808</v>
       </c>
@@ -7279,7 +7290,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38838</v>
       </c>
@@ -7299,7 +7310,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38869</v>
       </c>
@@ -7325,7 +7336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38899</v>
       </c>
@@ -7345,7 +7356,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38930</v>
       </c>
@@ -7365,7 +7376,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38961</v>
       </c>
@@ -7385,7 +7396,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38991</v>
       </c>
@@ -7409,7 +7420,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39022</v>
       </c>
@@ -7429,7 +7440,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39052</v>
       </c>
@@ -7449,7 +7460,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
         <v>129</v>
       </c>
@@ -7467,7 +7478,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39083</v>
       </c>
@@ -7491,7 +7502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>52</v>
@@ -7511,7 +7522,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39114</v>
       </c>
@@ -7531,7 +7542,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39142</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>39164</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39173</v>
       </c>
@@ -7577,7 +7588,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39203</v>
       </c>
@@ -7597,7 +7608,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39234</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39264</v>
       </c>
@@ -7641,7 +7652,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>132</v>
@@ -7663,7 +7674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39295</v>
       </c>
@@ -7689,7 +7700,7 @@
         <v>39289</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7711,7 +7722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>74</v>
@@ -7733,7 +7744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39326</v>
       </c>
@@ -7759,7 +7770,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>57</v>
@@ -7779,7 +7790,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -7801,7 +7812,7 @@
         <v>39335</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39356</v>
       </c>
@@ -7827,7 +7838,7 @@
         <v>39359</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39387</v>
       </c>
@@ -7853,7 +7864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39417</v>
       </c>
@@ -7879,7 +7890,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>137</v>
       </c>
@@ -7897,7 +7908,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39448</v>
       </c>
@@ -7923,7 +7934,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>149</v>
@@ -7943,7 +7954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>84</v>
@@ -7965,7 +7976,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>47</v>
@@ -7987,7 +7998,7 @@
         <v>39503</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39479</v>
       </c>
@@ -8013,7 +8024,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>84</v>
@@ -8035,7 +8046,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>74</v>
@@ -8057,7 +8068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39508</v>
       </c>
@@ -8083,7 +8094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>54</v>
@@ -8105,7 +8116,7 @@
         <v>39525</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>59</v>
@@ -8127,7 +8138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>47</v>
@@ -8149,7 +8160,7 @@
         <v>39524</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39539</v>
       </c>
@@ -8175,7 +8186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39569</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="15" t="s">
         <v>52</v>
@@ -8223,7 +8234,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39600</v>
       </c>
@@ -8249,7 +8260,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>84</v>
@@ -8271,7 +8282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>47</v>
@@ -8293,7 +8304,7 @@
         <v>39629</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>160</v>
@@ -8313,7 +8324,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39630</v>
       </c>
@@ -8339,7 +8350,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>84</v>
@@ -8361,7 +8372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>47</v>
@@ -8383,7 +8394,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>159</v>
@@ -8403,7 +8414,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39661</v>
       </c>
@@ -8429,7 +8440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>163</v>
@@ -8449,7 +8460,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>164</v>
@@ -8469,7 +8480,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39692</v>
       </c>
@@ -8495,7 +8506,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>47</v>
@@ -8517,7 +8528,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>165</v>
@@ -8537,7 +8548,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39722</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>65</v>
@@ -8585,7 +8596,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>168</v>
@@ -8605,7 +8616,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39753</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>74</v>
@@ -8653,7 +8664,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -8675,7 +8686,7 @@
         <v>39770</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>84</v>
@@ -8697,7 +8708,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -8719,7 +8730,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>116</v>
@@ -8739,7 +8750,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39783</v>
       </c>
@@ -8765,7 +8776,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>173</v>
@@ -8785,7 +8796,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
         <v>138</v>
       </c>
@@ -8803,7 +8814,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39814</v>
       </c>
@@ -8827,7 +8838,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>52</v>
@@ -8849,7 +8860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>74</v>
@@ -8871,7 +8882,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>149</v>
@@ -8891,7 +8902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>52</v>
@@ -8913,7 +8924,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>175</v>
@@ -8933,7 +8944,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39845</v>
       </c>
@@ -8959,7 +8970,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -8981,7 +8992,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>84</v>
@@ -9001,7 +9012,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>180</v>
@@ -9021,7 +9032,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>183</v>
@@ -9067,7 +9078,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>184</v>
@@ -9087,7 +9098,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39904</v>
       </c>
@@ -9113,7 +9124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>47</v>
@@ -9133,7 +9144,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>52</v>
@@ -9155,7 +9166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>187</v>
@@ -9175,7 +9186,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39934</v>
       </c>
@@ -9201,7 +9212,7 @@
         <v>39948</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -9221,7 +9232,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>183</v>
@@ -9243,7 +9254,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39965</v>
       </c>
@@ -9269,7 +9280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>84</v>
@@ -9291,7 +9302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>118</v>
@@ -9311,7 +9322,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39995</v>
       </c>
@@ -9337,7 +9348,7 @@
         <v>39995</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>52</v>
@@ -9359,7 +9370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>65</v>
@@ -9381,7 +9392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>193</v>
@@ -9401,7 +9412,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>40026</v>
       </c>
@@ -9425,7 +9436,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40057</v>
       </c>
@@ -9451,7 +9462,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -9473,7 +9484,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>47</v>
@@ -9495,7 +9506,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>81</v>
@@ -9517,7 +9528,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>197</v>
@@ -9537,7 +9548,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40087</v>
       </c>
@@ -9563,7 +9574,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>74</v>
@@ -9585,7 +9596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>74</v>
@@ -9607,7 +9618,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>81</v>
@@ -9629,7 +9640,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>199</v>
@@ -9649,7 +9660,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40118</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>203</v>
@@ -9693,7 +9704,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>74</v>
@@ -9715,7 +9726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40148</v>
       </c>
@@ -9741,7 +9752,7 @@
         <v>40170</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>205</v>
@@ -9761,7 +9772,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>206</v>
@@ -9781,7 +9792,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>139</v>
       </c>
@@ -9799,7 +9810,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40179</v>
       </c>
@@ -9823,7 +9834,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>45</v>
@@ -9843,7 +9854,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>47</v>
@@ -9865,7 +9876,7 @@
         <v>40193</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>65</v>
@@ -9887,7 +9898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>207</v>
@@ -9907,7 +9918,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40210</v>
       </c>
@@ -9933,7 +9944,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>47</v>
@@ -9955,7 +9966,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>209</v>
@@ -9975,7 +9986,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40238</v>
       </c>
@@ -10001,7 +10012,7 @@
         <v>40242</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>47</v>
@@ -10023,7 +10034,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>210</v>
@@ -10043,7 +10054,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40269</v>
       </c>
@@ -10069,7 +10080,7 @@
         <v>40282</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>211</v>
@@ -10089,7 +10100,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40299</v>
       </c>
@@ -10113,7 +10124,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40330</v>
       </c>
@@ -10139,7 +10150,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>213</v>
@@ -10159,7 +10170,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40360</v>
       </c>
@@ -10183,7 +10194,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -10205,7 +10216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>47</v>
@@ -10227,7 +10238,7 @@
         <v>40379</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>47</v>
@@ -10249,7 +10260,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>47</v>
@@ -10271,7 +10282,7 @@
         <v>40388</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>214</v>
@@ -10291,7 +10302,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40391</v>
       </c>
@@ -10317,7 +10328,7 @@
         <v>40403</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>47</v>
@@ -10339,7 +10350,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>216</v>
@@ -10359,7 +10370,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40422</v>
       </c>
@@ -10383,7 +10394,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40452</v>
       </c>
@@ -10409,7 +10420,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>47</v>
@@ -10431,7 +10442,7 @@
         <v>40462</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>54</v>
@@ -10453,7 +10464,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>218</v>
@@ -10473,7 +10484,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40483</v>
       </c>
@@ -10497,7 +10508,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40513</v>
       </c>
@@ -10523,7 +10534,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>205</v>
@@ -10543,7 +10554,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>221</v>
@@ -10563,7 +10574,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
         <v>140</v>
       </c>
@@ -10581,7 +10592,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40544</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>222</v>
@@ -10627,7 +10638,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40575</v>
       </c>
@@ -10651,7 +10662,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40603</v>
       </c>
@@ -10675,7 +10686,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40634</v>
       </c>
@@ -10701,7 +10712,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>70</v>
@@ -10721,7 +10732,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40664</v>
       </c>
@@ -10747,7 +10758,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>226</v>
@@ -10767,7 +10778,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>40695</v>
       </c>
@@ -10793,7 +10804,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>46</v>
@@ -10813,7 +10824,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40725</v>
       </c>
@@ -10839,7 +10850,7 @@
         <v>40744</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>227</v>
@@ -10859,7 +10870,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40756</v>
       </c>
@@ -10885,7 +10896,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>47</v>
@@ -10907,7 +10918,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>228</v>
@@ -10927,7 +10938,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40787</v>
       </c>
@@ -10951,7 +10962,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>47</v>
@@ -10973,7 +10984,7 @@
         <v>40809</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>47</v>
@@ -10995,7 +11006,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11015,7 +11026,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40817</v>
       </c>
@@ -11041,7 +11052,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>231</v>
@@ -11061,7 +11072,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40848</v>
       </c>
@@ -11085,7 +11096,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40878</v>
       </c>
@@ -11111,7 +11122,7 @@
         <v>40893</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>233</v>
@@ -11131,7 +11142,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="49"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>141</v>
       </c>
@@ -11149,7 +11160,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40909</v>
       </c>
@@ -11173,7 +11184,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>52</v>
@@ -11195,7 +11206,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>47</v>
@@ -11217,7 +11228,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>234</v>
@@ -11237,7 +11248,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40940</v>
       </c>
@@ -11261,7 +11272,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40969</v>
       </c>
@@ -11287,7 +11298,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>54</v>
@@ -11309,7 +11320,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>74</v>
@@ -11331,7 +11342,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>236</v>
@@ -11351,7 +11362,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41000</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>239</v>
@@ -11397,7 +11408,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41030</v>
       </c>
@@ -11421,7 +11432,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>47</v>
@@ -11443,7 +11454,7 @@
         <v>41058</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>241</v>
@@ -11463,7 +11474,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41061</v>
       </c>
@@ -11489,7 +11500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>242</v>
@@ -11509,7 +11520,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41091</v>
       </c>
@@ -11535,7 +11546,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>47</v>
@@ -11557,7 +11568,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>244</v>
@@ -11577,7 +11588,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41122</v>
       </c>
@@ -11603,7 +11614,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>246</v>
@@ -11625,7 +11636,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>247</v>
@@ -11645,7 +11656,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41153</v>
       </c>
@@ -11671,7 +11682,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>57</v>
@@ -11691,7 +11702,7 @@
         <v>41171</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -11713,7 +11724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>250</v>
@@ -11735,7 +11746,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>251</v>
@@ -11755,7 +11766,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41183</v>
       </c>
@@ -11781,7 +11792,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41214</v>
       </c>
@@ -11805,7 +11816,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41244</v>
       </c>
@@ -11829,7 +11840,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>142</v>
       </c>
@@ -11847,7 +11858,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41275</v>
       </c>
@@ -11873,7 +11884,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>205</v>
@@ -11893,7 +11904,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11913,7 +11924,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>47</v>
@@ -11935,7 +11946,7 @@
         <v>41303</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>256</v>
@@ -11955,7 +11966,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41306</v>
       </c>
@@ -11981,7 +11992,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>258</v>
@@ -12001,7 +12012,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41334</v>
       </c>
@@ -12027,7 +12038,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>260</v>
@@ -12036,7 +12047,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.258000000000067</v>
+        <v>58.931000000000125</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -12051,7 +12062,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>41365</v>
       </c>
@@ -12075,7 +12086,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41395</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>41386</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>52</v>
@@ -12121,7 +12132,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>132</v>
@@ -12143,7 +12154,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>107</v>
@@ -12163,7 +12174,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>41426</v>
       </c>
@@ -12189,7 +12200,7 @@
         <v>41442</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>264</v>
@@ -12209,7 +12220,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41456</v>
       </c>
@@ -12233,7 +12244,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41487</v>
       </c>
@@ -12259,7 +12270,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>266</v>
@@ -12279,7 +12290,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41518</v>
       </c>
@@ -12305,7 +12316,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>267</v>
@@ -12325,7 +12336,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41548</v>
       </c>
@@ -12351,7 +12362,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>268</v>
@@ -12371,7 +12382,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41579</v>
       </c>
@@ -12395,7 +12406,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41609</v>
       </c>
@@ -12419,7 +12430,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>271</v>
@@ -12439,7 +12450,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>143</v>
       </c>
@@ -12457,7 +12468,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41640</v>
       </c>
@@ -12481,7 +12492,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41671</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>41684</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -12527,7 +12538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>113</v>
@@ -12547,7 +12558,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41699</v>
       </c>
@@ -12571,7 +12582,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41730</v>
       </c>
@@ -12597,7 +12608,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>275</v>
@@ -12617,7 +12628,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41760</v>
       </c>
@@ -12643,7 +12654,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>57</v>
@@ -12663,7 +12674,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>276</v>
@@ -12683,7 +12694,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41791</v>
       </c>
@@ -12709,7 +12720,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>278</v>
@@ -12729,7 +12740,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41821</v>
       </c>
@@ -12755,7 +12766,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>279</v>
@@ -12775,7 +12786,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41852</v>
       </c>
@@ -12799,7 +12810,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41883</v>
       </c>
@@ -12823,7 +12834,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>281</v>
@@ -12843,7 +12854,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41913</v>
       </c>
@@ -12867,7 +12878,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41944</v>
       </c>
@@ -12893,7 +12904,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>284</v>
@@ -12913,7 +12924,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41974</v>
       </c>
@@ -12937,7 +12948,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>144</v>
       </c>
@@ -12955,7 +12966,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42005</v>
       </c>
@@ -12979,7 +12990,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>265</v>
@@ -12999,7 +13010,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42036</v>
       </c>
@@ -13023,7 +13034,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42064</v>
       </c>
@@ -13049,7 +13060,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>288</v>
@@ -13069,7 +13080,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42095</v>
       </c>
@@ -13093,7 +13104,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42125</v>
       </c>
@@ -13119,7 +13130,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>290</v>
@@ -13139,7 +13150,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42156</v>
       </c>
@@ -13163,7 +13174,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42186</v>
       </c>
@@ -13187,7 +13198,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>293</v>
@@ -13207,7 +13218,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42217</v>
       </c>
@@ -13231,7 +13242,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42248</v>
       </c>
@@ -13255,7 +13266,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>42278</v>
       </c>
@@ -13279,7 +13290,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42309</v>
       </c>
@@ -13303,7 +13314,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42339</v>
       </c>
@@ -13327,7 +13338,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="48" t="s">
         <v>145</v>
       </c>
@@ -13345,7 +13356,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42370</v>
       </c>
@@ -13369,7 +13380,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42401</v>
       </c>
@@ -13393,7 +13404,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>299</v>
@@ -13413,7 +13424,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="49"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42430</v>
       </c>
@@ -13439,7 +13450,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -13459,7 +13470,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>300</v>
@@ -13479,7 +13490,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42461</v>
       </c>
@@ -13503,7 +13514,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42491</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>303</v>
@@ -13549,7 +13560,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42522</v>
       </c>
@@ -13573,7 +13584,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42552</v>
       </c>
@@ -13597,7 +13608,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42583</v>
       </c>
@@ -13621,7 +13632,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42614</v>
       </c>
@@ -13645,7 +13656,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42644</v>
       </c>
@@ -13669,7 +13680,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42675</v>
       </c>
@@ -13695,7 +13706,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>308</v>
@@ -13715,7 +13726,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>42705</v>
       </c>
@@ -13739,7 +13750,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>309</v>
@@ -13759,7 +13770,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>146</v>
       </c>
@@ -13777,7 +13788,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42736</v>
       </c>
@@ -13801,7 +13812,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>74</v>
@@ -13823,7 +13834,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13845,7 +13856,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>312</v>
@@ -13865,7 +13876,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="49"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42767</v>
       </c>
@@ -13889,7 +13900,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42795</v>
       </c>
@@ -13915,7 +13926,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>314</v>
@@ -13935,7 +13946,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42826</v>
       </c>
@@ -13959,7 +13970,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42856</v>
       </c>
@@ -13985,7 +13996,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>47</v>
@@ -14007,7 +14018,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>47</v>
@@ -14029,7 +14040,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>316</v>
@@ -14049,7 +14060,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42887</v>
       </c>
@@ -14073,7 +14084,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42917</v>
       </c>
@@ -14097,7 +14108,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42948</v>
       </c>
@@ -14123,7 +14134,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>47</v>
@@ -14145,7 +14156,7 @@
         <v>42944</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>319</v>
@@ -14165,7 +14176,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="49"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42979</v>
       </c>
@@ -14189,7 +14200,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43009</v>
       </c>
@@ -14213,7 +14224,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43040</v>
       </c>
@@ -14233,7 +14244,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43070</v>
       </c>
@@ -14257,7 +14268,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
         <v>147</v>
       </c>
@@ -14275,7 +14286,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43101</v>
       </c>
@@ -14299,7 +14310,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43132</v>
       </c>
@@ -14319,7 +14330,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43160</v>
       </c>
@@ -14343,7 +14354,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43191</v>
       </c>
@@ -14363,7 +14374,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43221</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>321</v>
@@ -14407,7 +14418,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43252</v>
       </c>
@@ -14431,7 +14442,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43282</v>
       </c>
@@ -14457,7 +14468,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>324</v>
@@ -14477,7 +14488,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43313</v>
       </c>
@@ -14501,7 +14512,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43344</v>
       </c>
@@ -14525,7 +14536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>328</v>
@@ -14545,7 +14556,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43374</v>
       </c>
@@ -14569,7 +14580,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43405</v>
       </c>
@@ -14593,7 +14604,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43435</v>
       </c>
@@ -14617,7 +14628,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>333</v>
@@ -14637,7 +14648,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>47</v>
@@ -14659,7 +14670,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
         <v>148</v>
       </c>
@@ -14677,7 +14688,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43466</v>
       </c>
@@ -14701,7 +14712,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>99</v>
@@ -14721,7 +14732,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43497</v>
       </c>
@@ -14743,7 +14754,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>335</v>
@@ -14763,7 +14774,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43525</v>
       </c>
@@ -14787,7 +14798,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43556</v>
       </c>
@@ -14813,7 +14824,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>337</v>
@@ -14833,7 +14844,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43586</v>
       </c>
@@ -14853,7 +14864,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43617</v>
       </c>
@@ -14879,7 +14890,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>335</v>
@@ -14899,7 +14910,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43647</v>
       </c>
@@ -14923,7 +14934,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43678</v>
       </c>
@@ -14947,7 +14958,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43709</v>
       </c>
@@ -14971,7 +14982,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43739</v>
       </c>
@@ -14995,7 +15006,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43770</v>
       </c>
@@ -15019,7 +15030,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43800</v>
       </c>
@@ -15045,7 +15056,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>289</v>
@@ -15065,7 +15076,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>344</v>
@@ -15085,7 +15096,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>330</v>
       </c>
@@ -15103,7 +15114,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -15127,7 +15138,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>47</v>
@@ -15149,7 +15160,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43862</v>
       </c>
@@ -15169,7 +15180,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43891</v>
       </c>
@@ -15189,7 +15200,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43922</v>
       </c>
@@ -15209,7 +15220,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43952</v>
       </c>
@@ -15229,7 +15240,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43983</v>
       </c>
@@ -15249,7 +15260,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44013</v>
       </c>
@@ -15269,7 +15280,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44044</v>
       </c>
@@ -15289,7 +15300,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44075</v>
       </c>
@@ -15309,7 +15320,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44105</v>
       </c>
@@ -15329,7 +15340,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44136</v>
       </c>
@@ -15349,7 +15360,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44166</v>
       </c>
@@ -15373,7 +15384,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>331</v>
       </c>
@@ -15391,7 +15402,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44197</v>
       </c>
@@ -15411,7 +15422,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44228</v>
       </c>
@@ -15431,7 +15442,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44256</v>
       </c>
@@ -15451,7 +15462,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44287</v>
       </c>
@@ -15471,7 +15482,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44317</v>
       </c>
@@ -15491,7 +15502,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44348</v>
       </c>
@@ -15511,7 +15522,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44378</v>
       </c>
@@ -15531,7 +15542,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44409</v>
       </c>
@@ -15551,7 +15562,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44440</v>
       </c>
@@ -15571,7 +15582,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44470</v>
       </c>
@@ -15591,7 +15602,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44501</v>
       </c>
@@ -15611,7 +15622,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44531</v>
       </c>
@@ -15635,7 +15646,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="48" t="s">
         <v>332</v>
       </c>
@@ -15653,7 +15664,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44562</v>
       </c>
@@ -15673,7 +15684,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44593</v>
       </c>
@@ -15693,7 +15704,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44621</v>
       </c>
@@ -15717,7 +15728,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44652</v>
       </c>
@@ -15741,7 +15752,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>71</v>
@@ -15761,7 +15772,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44682</v>
       </c>
@@ -15785,7 +15796,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44713</v>
       </c>
@@ -15809,7 +15820,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44743</v>
       </c>
@@ -15833,7 +15844,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44774</v>
       </c>
@@ -15859,7 +15870,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>358</v>
@@ -15879,7 +15890,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="49"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44805</v>
       </c>
@@ -15903,7 +15914,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>356</v>
@@ -15923,7 +15934,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="49"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44835</v>
       </c>
@@ -15947,7 +15958,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>343</v>
@@ -15967,7 +15978,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="49"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44866</v>
       </c>
@@ -15991,7 +16002,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44896</v>
       </c>
@@ -16015,7 +16026,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>54</v>
@@ -16037,7 +16048,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>355</v>
@@ -16057,7 +16068,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="49"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="48" t="s">
         <v>348</v>
       </c>
@@ -16075,7 +16086,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44927</v>
       </c>
@@ -16099,7 +16110,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>47</v>
@@ -16121,7 +16132,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44958</v>
       </c>
@@ -16141,7 +16152,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44986</v>
       </c>
@@ -16161,7 +16172,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45017</v>
       </c>
@@ -16181,7 +16192,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45047</v>
       </c>
@@ -16201,7 +16212,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45078</v>
       </c>
@@ -16221,7 +16232,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45108</v>
       </c>
@@ -16245,7 +16256,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>47</v>
@@ -16267,165 +16278,171 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554" s="40">
-        <v>45139</v>
-      </c>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C554" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D554" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H554" s="39">
-        <v>1</v>
-      </c>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="49">
-        <v>45141</v>
-      </c>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555" s="40"/>
+      <c r="K554" s="49"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="40">
+        <v>45139</v>
+      </c>
       <c r="B555" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C555" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D555" s="39"/>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H555" s="39"/>
+      <c r="G555" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H555" s="39">
+        <v>1</v>
+      </c>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="49">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A556" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B556" s="20"/>
-      <c r="C556" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" s="40"/>
+      <c r="B556" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C556" s="13"/>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20"/>
-    </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A557" s="40">
-        <v>45200</v>
-      </c>
+      <c r="K556" s="49">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="C557" s="13"/>
-      <c r="D557" s="39"/>
+      <c r="D557" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
       <c r="G557" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H557" s="39">
-        <v>1</v>
-      </c>
+      <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="49">
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A558" s="40"/>
+      <c r="K557" s="49"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="40">
+        <v>45170</v>
+      </c>
       <c r="B558" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C558" s="13"/>
-      <c r="D558" s="39"/>
+        <v>83</v>
+      </c>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D558" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H558" s="39">
-        <v>2</v>
-      </c>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45200</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C559" s="13"/>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H559" s="39"/>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39">
+        <v>1</v>
+      </c>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B560" s="20"/>
-      <c r="C560" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K559" s="49">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40"/>
+      <c r="B560" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C560" s="13"/>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H560" s="39"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39">
+        <v>2</v>
+      </c>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
-    </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A561" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B561" s="20"/>
+      <c r="K560" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="40"/>
+      <c r="B561" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="C561" s="13"/>
-      <c r="D561" s="39"/>
+      <c r="D561" s="39">
+        <v>1</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
@@ -16435,17 +16452,19 @@
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
-    </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A562" s="40">
-        <v>45292</v>
-      </c>
+      <c r="K561" s="49">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="C562" s="13"/>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13" t="str">
@@ -16455,49 +16474,59 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="49">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K562" s="49"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
-      <c r="D563" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D563" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D564" s="39">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565" s="40">
-        <v>45383</v>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="48" t="s">
+        <v>363</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16513,11 +16542,13 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B566" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -16529,11 +16560,13 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
-    </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K566" s="49">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16549,8 +16582,10 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568" s="40"/>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="40">
+        <v>45352</v>
+      </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
@@ -16565,21 +16600,91 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569" s="41"/>
-      <c r="B569" s="15"/>
-      <c r="C569" s="42"/>
-      <c r="D569" s="43"/>
-      <c r="E569" s="51"/>
-      <c r="F569" s="15"/>
-      <c r="G569" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H569" s="43"/>
-      <c r="I569" s="51"/>
-      <c r="J569" s="12"/>
-      <c r="K569" s="15"/>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="40"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="41"/>
+      <c r="B573" s="15"/>
+      <c r="C573" s="42"/>
+      <c r="D573" s="43"/>
+      <c r="E573" s="51"/>
+      <c r="F573" s="15"/>
+      <c r="G573" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="43"/>
+      <c r="I573" s="51"/>
+      <c r="J573" s="12"/>
+      <c r="K573" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16596,10 +16701,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16622,7 +16727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16630,21 +16735,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16657,7 +16762,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16686,7 +16791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>6.9580000000000002</v>
       </c>
@@ -16698,11 +16803,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.01</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -16714,17 +16819,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16745,7 +16850,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16772,7 +16877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16798,7 +16903,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16824,7 +16929,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16850,7 +16955,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16876,7 +16981,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16902,7 +17007,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16928,7 +17033,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16954,7 +17059,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16974,7 +17079,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16994,7 +17099,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17014,7 +17119,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17035,7 +17140,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17056,7 +17161,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17077,7 +17182,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17098,7 +17203,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17119,7 +17224,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17140,7 +17245,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17161,7 +17266,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17182,7 +17287,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17203,7 +17308,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17224,7 +17329,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17245,7 +17350,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17266,7 +17371,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17287,7 +17392,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17308,7 +17413,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17329,7 +17434,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17350,7 +17455,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17371,7 +17476,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17392,7 +17497,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17413,7 +17518,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17434,7 +17539,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17443,7 +17548,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17452,7 +17557,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17461,7 +17566,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17470,7 +17575,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17479,7 +17584,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17488,7 +17593,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17497,7 +17602,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17506,7 +17611,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17515,7 +17620,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17524,7 +17629,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17533,7 +17638,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17542,7 +17647,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17551,7 +17656,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17560,7 +17665,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17569,7 +17674,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17578,7 +17683,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17587,7 +17692,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17596,7 +17701,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17605,7 +17710,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17614,7 +17719,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17623,7 +17728,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17632,7 +17737,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17641,7 +17746,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17650,7 +17755,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17659,7 +17764,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17668,7 +17773,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17677,7 +17782,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17686,7 +17791,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17695,7 +17800,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="370">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1138,6 +1138,12 @@
   </si>
   <si>
     <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>UT(0-4-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2024,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2067,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2131,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2191,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2257,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2320,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2418,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2477,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2542,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2585,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2660,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2846,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2912,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2970,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3036,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3092,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3167,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3210,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3276,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3332,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3430,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3493,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3559,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3931,12 +3937,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K573"/>
+  <dimension ref="A2:K575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A551" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A539" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
+      <selection pane="bottomLeft" activeCell="E555" sqref="E555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,7 +4105,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.931000000000125</v>
+        <v>57.214000000000141</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12047,7 +12053,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.931000000000125</v>
+        <v>57.214000000000141</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -16133,34 +16139,38 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B547" s="20"/>
-      <c r="C547" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D547" s="39"/>
+      <c r="A547" s="40"/>
+      <c r="B547" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C547" s="13"/>
+      <c r="D547" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="49"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B548" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B548" s="20" t="s">
+        <v>369</v>
+      </c>
       <c r="C548" s="13">
         <v>1.25</v>
       </c>
-      <c r="D548" s="39"/>
+      <c r="D548" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
       <c r="G548" s="13">
@@ -16174,13 +16184,17 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B549" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B549" s="20" t="s">
+        <v>368</v>
+      </c>
       <c r="C549" s="13">
         <v>1.25</v>
       </c>
-      <c r="D549" s="39"/>
+      <c r="D549" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
       <c r="G549" s="13">
@@ -16194,7 +16208,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13">
@@ -16214,13 +16228,17 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B551" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>357</v>
+      </c>
       <c r="C551" s="13">
         <v>1.25</v>
       </c>
-      <c r="D551" s="39"/>
+      <c r="D551" s="39">
+        <v>1</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
       <c r="G551" s="13">
@@ -16230,90 +16248,90 @@
       <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="49">
+        <v>45061</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C552" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D552" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="C552" s="13"/>
+      <c r="D552" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G552" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="49">
-        <v>45103</v>
-      </c>
+      <c r="K552" s="49"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40"/>
+      <c r="A553" s="40">
+        <v>45078</v>
+      </c>
       <c r="B553" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C553" s="13"/>
-      <c r="D553" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D553" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H553" s="39">
-        <v>1</v>
-      </c>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="49">
-        <v>45124</v>
-      </c>
+      <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+      <c r="A554" s="40">
+        <v>45108</v>
+      </c>
       <c r="B554" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C554" s="13"/>
-      <c r="D554" s="39">
-        <v>2.5000000000000008E-2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D554" s="39"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="49"/>
+      <c r="K554" s="49">
+        <v>45103</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C555" s="13"/>
       <c r="D555" s="39"/>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="39">
         <v>1</v>
@@ -16321,16 +16339,18 @@
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="49">
-        <v>45141</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C556" s="13"/>
-      <c r="D556" s="39"/>
+      <c r="D556" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
       <c r="G556" s="13" t="str">
@@ -16340,202 +16360,204 @@
       <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="49">
-        <v>45161</v>
-      </c>
+      <c r="K556" s="49"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40"/>
+      <c r="A557" s="40">
+        <v>45139</v>
+      </c>
       <c r="B557" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C557" s="13"/>
-      <c r="D557" s="39">
-        <v>4.6000000000000006E-2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D557" s="39"/>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H557" s="39"/>
+      <c r="G557" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H557" s="39">
+        <v>1</v>
+      </c>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="49"/>
+      <c r="K557" s="49">
+        <v>45141</v>
+      </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C558" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D558" s="39">
-        <v>5.4000000000000013E-2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="49">
+        <v>45161</v>
+      </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="C559" s="13"/>
-      <c r="D559" s="39"/>
+      <c r="D559" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
       <c r="G559" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H559" s="39">
-        <v>1</v>
-      </c>
+      <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="49">
-        <v>45211</v>
-      </c>
+      <c r="K559" s="49"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+      <c r="A560" s="40">
+        <v>45170</v>
+      </c>
       <c r="B560" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C560" s="13"/>
-      <c r="D560" s="39"/>
+        <v>83</v>
+      </c>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D560" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H560" s="39">
-        <v>2</v>
-      </c>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="49" t="s">
-        <v>362</v>
-      </c>
+      <c r="K560" s="20"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+      <c r="A561" s="40">
+        <v>45200</v>
+      </c>
       <c r="B561" s="20" t="s">
-        <v>357</v>
+        <v>47</v>
       </c>
       <c r="C561" s="13"/>
-      <c r="D561" s="39">
-        <v>1</v>
-      </c>
+      <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H561" s="39"/>
+      <c r="H561" s="39">
+        <v>1</v>
+      </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
       <c r="K561" s="49">
-        <v>45204</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="C562" s="13"/>
-      <c r="D562" s="39">
-        <v>7.5000000000000011E-2</v>
-      </c>
+      <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H562" s="39"/>
+      <c r="H562" s="39">
+        <v>2</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="49"/>
+      <c r="K562" s="49" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="C563" s="13">
-        <v>1.25</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C563" s="13"/>
       <c r="D563" s="39">
-        <v>3.5000000000000017E-2</v>
+        <v>1</v>
       </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="49">
+        <v>45204</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C564" s="13">
-        <v>1.25</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C564" s="13"/>
       <c r="D564" s="39">
-        <v>9.1999999999999998E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="49"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
-      <c r="D565" s="39"/>
+      <c r="A565" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D565" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
@@ -16544,29 +16566,31 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C566" s="13"/>
-      <c r="D566" s="39"/>
+        <v>364</v>
+      </c>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D566" s="39">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="49">
-        <v>45295</v>
-      </c>
+      <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>45323</v>
+      <c r="A567" s="48" t="s">
+        <v>363</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16584,9 +16608,11 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B568" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
@@ -16598,11 +16624,13 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="49">
+        <v>45295</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16620,7 +16648,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16638,7 +16666,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16655,7 +16683,9 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="40">
+        <v>45413</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -16671,20 +16701,54 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="41"/>
-      <c r="B573" s="15"/>
-      <c r="C573" s="42"/>
-      <c r="D573" s="43"/>
-      <c r="E573" s="51"/>
-      <c r="F573" s="15"/>
-      <c r="G573" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H573" s="43"/>
-      <c r="I573" s="51"/>
-      <c r="J573" s="12"/>
-      <c r="K573" s="15"/>
+      <c r="A573" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="41"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="42"/>
+      <c r="D575" s="43"/>
+      <c r="E575" s="51"/>
+      <c r="F575" s="15"/>
+      <c r="G575" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="43"/>
+      <c r="I575" s="51"/>
+      <c r="J575" s="12"/>
+      <c r="K575" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16799,15 +16863,13 @@
         <v>8.9580000000000002</v>
       </c>
       <c r="D3"/>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5000000000000008E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
